--- a/optec_import_template.xlsx
+++ b/optec_import_template.xlsx
@@ -1,51 +1,672 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toinh\Downloads\sistema de pedidos\optic_purchase_app_menu_fixed\optic_purchase_app_render2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EED4BE0-8A18-47CB-8308-4C97EBFF657D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Suppliers" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rules" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Suppliers" sheetId="1" r:id="rId1"/>
+    <sheet name="Products" sheetId="2" r:id="rId2"/>
+    <sheet name="Rules" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="54">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>bloco</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>product_kind</t>
+  </si>
+  <si>
+    <t>supplier_name</t>
+  </si>
+  <si>
+    <t>max_price</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BVS 1.56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BVS 1.56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FOTO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BVS 1.56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BLUE </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BVS 1.56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AR FOTO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BVS 1.59 POLI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> INCOLOR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BVS 1.59 POLI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BVS 1.59 POLI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FOTO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BVS 1.59 POLI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AR FOTO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BVS 1.59 POLI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AR FOTO BLUE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BVS 1.61 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BVS 1.61</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AR BLUE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BVS 1.67 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BVS 1.67</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FOTO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BVS 1.67 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AR FOTO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BVS 1.67 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AR BLUE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BVS 1.67 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AR FOTO BLUE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BVS 1.74 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INCOLOR</t>
+    </r>
+  </si>
+  <si>
+    <t>400B</t>
+  </si>
+  <si>
+    <t>401B</t>
+  </si>
+  <si>
+    <t>402B</t>
+  </si>
+  <si>
+    <t>403B</t>
+  </si>
+  <si>
+    <t>410B</t>
+  </si>
+  <si>
+    <t>411B</t>
+  </si>
+  <si>
+    <t>412B</t>
+  </si>
+  <si>
+    <t>413B</t>
+  </si>
+  <si>
+    <t>414B</t>
+  </si>
+  <si>
+    <t>426B</t>
+  </si>
+  <si>
+    <t>427B</t>
+  </si>
+  <si>
+    <t>420B</t>
+  </si>
+  <si>
+    <t>421B</t>
+  </si>
+  <si>
+    <t>422B</t>
+  </si>
+  <si>
+    <t>423B</t>
+  </si>
+  <si>
+    <t>424B</t>
+  </si>
+  <si>
+    <t>425B</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KRIPTOK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> INCOLOR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ULTEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> INCOLOR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ULTEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FOTO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KRIPTOK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FOTO</t>
+    </r>
+  </si>
+  <si>
+    <t>430B</t>
+  </si>
+  <si>
+    <t>431B</t>
+  </si>
+  <si>
+    <t>432B</t>
+  </si>
+  <si>
+    <t>433B</t>
+  </si>
+  <si>
+    <t>PEREGO</t>
+  </si>
+  <si>
+    <t>GOLDMIX</t>
+  </si>
+  <si>
+    <t>SHINEDUX</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DDDDDD"/>
-        <bgColor rgb="00DDDDDD"/>
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -53,86 +674,166 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,52 +1121,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Fornecedor Exemplo A</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Fornecedor Exemplo B</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -475,84 +1148,326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>kind</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Lente Asférica 1.67</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>LA167</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>lente</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Bloco Base 4</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BB4</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>bloco</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
         <v>1</v>
       </c>
     </row>
@@ -562,96 +1477,376 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C6" sqref="C6:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>product_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>product_kind</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>supplier_name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>max_price</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Lente Asférica 1.67</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>lente</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Fornecedor Exemplo A</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>250</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Bloco Base 4</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>bloco</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Fornecedor Exemplo B</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7">
         <v>80</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9">
+        <v>95</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12">
+        <v>70</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>95</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15">
+        <v>80</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16">
+        <v>120</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>33</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20">
+        <v>33</v>
+      </c>
+      <c r="E20">
         <v>1</v>
       </c>
     </row>
